--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006201</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化先锋混合</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006063</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城MSCI中国A股国际通指数增强</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>001974</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>景顺长城量化新动力股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001974</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化新动力股票</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005258</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>005258</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>景顺长城量化平衡灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>006201</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>景顺长城量化先锋混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>006063</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>001173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>中欧瑾和灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001173</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001174</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>001174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>中欧瑾和灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,1154 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1102</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2656,4 +2657,1422 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4054,7 +4055,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>79.89</t>
@@ -4070,6 +4070,106 @@
       </c>
       <c r="H37" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4083,7 +4084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4094,17 +4095,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4114,14 +4135,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.69</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4130,14 +4173,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.82</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4146,14 +4211,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.04</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4162,13 +4249,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6002,7 +6003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,17 +6014,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6033,14 +6054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.26</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6049,14 +6092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.69</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9918</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6065,14 +6130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.82</v>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6081,14 +6168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.04</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6097,13 +6206,2246 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7796</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013714</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013715</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8328,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8339,17 +8340,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8359,14 +8380,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.97</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8375,14 +8418,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.26</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8391,14 +8456,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.69</v>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8407,14 +8494,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.82</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8423,14 +8532,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.04</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8439,13 +8570,1549 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>13.49</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>15.97</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>16.26</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>10.69</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>9.82</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>3.04</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4574,7 +5633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6492,7 +7551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7909,7 +8968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9059,7 +10118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9571,7 +10630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/601117-中国化学.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>7.83</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>13.49</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>15.97</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>16.26</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>10.69</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>9.82</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>3.04</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,584 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1250,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.56</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9128</t>
+          <t>3.7280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1278,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>银华中证基建ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5670</t>
+          <t>0.4622</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1316,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中证基建ETF</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4395</t>
+          <t>0.4574</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1354,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012913</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>方正富邦趋势领航混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.14</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2762</t>
+          <t>0.3718</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1392,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010072</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2511</t>
+          <t>0.3665</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1430,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010615</t>
+          <t>015309</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金自主创新混合A</t>
+          <t>国投瑞银境煊灵活配置混合E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2202</t>
+          <t>0.2543</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1468,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010616</t>
+          <t>005474</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金自主创新混合C</t>
+          <t>泰康均衡优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2202</t>
+          <t>0.1596</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1506,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013082</t>
+          <t>159619</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）C</t>
+          <t>国泰中证基建ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1824</t>
+          <t>0.1431</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -977,32 +1544,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159635</t>
+          <t>013082</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏中证基建ETF</t>
+          <t>信诚中证基建工程指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1015,32 +1582,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013078</t>
+          <t>159635</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>方正富邦策略轮动混合A</t>
+          <t>华夏中证基建ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.64</t>
+          <t>99.16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1364</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1053,36 +1620,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159619</t>
+          <t>013967</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰中证基建ETF</t>
+          <t>广发恒享一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>19.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>20.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1260</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1658,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014818</t>
+          <t>910021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国金新兴价值混合A</t>
+          <t>东方红启华三年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.1225</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1696,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012914</t>
+          <t>013968</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>方正富邦趋势领航混合C</t>
+          <t>广发恒享一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.14</t>
+          <t>20.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0645</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1167,32 +1734,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009956</t>
+          <t>005475</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发恒誉混合A</t>
+          <t>泰康均衡优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0610</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1205,32 +1772,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014819</t>
+          <t>011198</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国金新兴价值混合C</t>
+          <t>交银施罗德鑫选回报混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1243,32 +1810,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>011313</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>东方红启华三年持有期混合B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1281,36 +1848,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>015061</t>
+          <t>013184</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信建投沪深300指数增强A</t>
+          <t>广发恒阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1886,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011198</t>
+          <t>013185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>交银施罗德鑫选回报混合A</t>
+          <t>广发恒阳一年持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1924,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015062</t>
+          <t>011199</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信建投沪深300指数增强C</t>
+          <t>交银施罗德鑫选回报混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1962,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011199</t>
+          <t>002135</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>交银施罗德鑫选回报混合C</t>
+          <t>广发鑫源灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +2000,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010073</t>
+          <t>003186</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合C</t>
+          <t>鹏华兴安定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +2038,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>013079</t>
+          <t>010597</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>方正富邦策略轮动混合C</t>
+          <t>创金合信景雯灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.64</t>
+          <t>20.94</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +2076,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>000417</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国联安新精选灵活配置混合</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1547,32 +2114,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005949</t>
+          <t>002136</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
+          <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>53.61</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1585,36 +2152,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009957</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发恒誉混合C</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1623,31 +2190,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005950</t>
+          <t>010598</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
+          <t>创金合信景雯灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>53.61</t>
+          <t>20.94</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>9</v>
@@ -1659,6 +2228,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3308,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5633,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7551,7 +9162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8968,7 +10579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10118,7 +11729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10628,554 +12239,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8481</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4640</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3535</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3163</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2897</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001974</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1687</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005258</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.92</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006201</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006063</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城MSCI中国A股国际通指数增强</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>